--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="2041">
   <si>
     <t>№</t>
   </si>
@@ -6634,55 +6634,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1900</v>
       </c>
       <c r="D3">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E3">
         <v>3670</v>
       </c>
       <c r="F3">
-        <v>6617</v>
+        <v>6618</v>
       </c>
       <c r="G3">
-        <v>9810</v>
+        <v>9811</v>
       </c>
       <c r="H3">
-        <v>11756</v>
+        <v>11757</v>
       </c>
       <c r="I3">
-        <v>15721</v>
+        <v>15722</v>
       </c>
       <c r="J3">
-        <v>21718</v>
+        <v>21723</v>
       </c>
       <c r="K3">
-        <v>24537</v>
+        <v>24540</v>
       </c>
       <c r="L3">
-        <v>38051</v>
+        <v>38068</v>
       </c>
       <c r="M3">
-        <v>40029</v>
+        <v>40038</v>
       </c>
       <c r="N3">
-        <v>62514</v>
+        <v>62533</v>
       </c>
       <c r="O3">
-        <v>65589</v>
+        <v>65613</v>
       </c>
       <c r="P3">
-        <v>117049</v>
+        <v>117077</v>
       </c>
       <c r="Q3">
-        <v>138389</v>
+        <v>138431</v>
       </c>
       <c r="R3">
-        <v>246702</v>
+        <v>246752</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6690,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>26488</v>
+        <v>26772</v>
       </c>
       <c r="C4">
         <v>6754</v>
@@ -6746,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2088</v>
+        <v>2108</v>
       </c>
       <c r="C5">
         <v>1250</v>
@@ -6773,7 +6773,7 @@
         <v>176</v>
       </c>
       <c r="K5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L5">
         <v>36</v>
@@ -6802,7 +6802,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C6">
         <v>284</v>
@@ -6914,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="C8">
         <v>370</v>
@@ -6997,7 +6997,7 @@
         <v>13</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -12157,6 +12157,9 @@
       <c r="A380" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="B380" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="2" t="s">
@@ -12186,6 +12189,9 @@
       <c r="A384" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="B384" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="2" t="s">
@@ -12218,6 +12224,9 @@
       <c r="A388" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="B388" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="2" t="s">
@@ -12466,6 +12475,9 @@
       <c r="A413" s="2" t="s">
         <v>504</v>
       </c>
+      <c r="B413" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="2" t="s">
@@ -12803,6 +12815,9 @@
       <c r="A454" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="B454" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="2" t="s">
@@ -23983,6 +23998,9 @@
       <c r="B1754" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="K1754" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="1755" spans="1:13">
       <c r="A1755" s="2" t="s">
@@ -24635,7 +24653,7 @@
         <v>1944</v>
       </c>
       <c r="B1838" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="M1838" s="4" t="s">
         <v>79</v>
@@ -24994,7 +25012,7 @@
         <v>1987</v>
       </c>
       <c r="B1881" s="3" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C1881" s="3" t="s">
         <v>47</v>

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="2041">
   <si>
     <t>№</t>
   </si>
@@ -6634,7 +6634,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1900</v>
@@ -6643,46 +6643,46 @@
         <v>3487</v>
       </c>
       <c r="E3">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="F3">
-        <v>6618</v>
+        <v>6619</v>
       </c>
       <c r="G3">
         <v>9811</v>
       </c>
       <c r="H3">
-        <v>11757</v>
+        <v>11759</v>
       </c>
       <c r="I3">
-        <v>15722</v>
+        <v>15725</v>
       </c>
       <c r="J3">
-        <v>21723</v>
+        <v>21728</v>
       </c>
       <c r="K3">
-        <v>24540</v>
+        <v>24548</v>
       </c>
       <c r="L3">
-        <v>38068</v>
+        <v>38082</v>
       </c>
       <c r="M3">
-        <v>40038</v>
+        <v>40060</v>
       </c>
       <c r="N3">
-        <v>62533</v>
+        <v>62555</v>
       </c>
       <c r="O3">
-        <v>65613</v>
+        <v>65634</v>
       </c>
       <c r="P3">
-        <v>117077</v>
+        <v>117107</v>
       </c>
       <c r="Q3">
-        <v>138431</v>
+        <v>138456</v>
       </c>
       <c r="R3">
-        <v>246752</v>
+        <v>246801</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6690,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>26772</v>
+        <v>27411</v>
       </c>
       <c r="C4">
         <v>6754</v>
@@ -6746,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2108</v>
+        <v>2124</v>
       </c>
       <c r="C5">
         <v>1250</v>
@@ -6802,7 +6802,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="C6">
         <v>284</v>
@@ -6914,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="C8">
         <v>370</v>
@@ -17633,6 +17633,9 @@
       <c r="A910" s="2" t="s">
         <v>1009</v>
       </c>
+      <c r="B910" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="911" spans="1:17">
       <c r="A911" s="2" t="s">
@@ -17835,6 +17838,9 @@
       <c r="A924" s="2" t="s">
         <v>1025</v>
       </c>
+      <c r="B924" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" s="2" t="s">
@@ -17848,11 +17854,17 @@
       <c r="A926" s="2" t="s">
         <v>1027</v>
       </c>
+      <c r="B926" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="927" spans="1:9">
       <c r="A927" s="2" t="s">
         <v>1028</v>
       </c>
+      <c r="B927" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" s="2" t="s">
@@ -18020,6 +18032,9 @@
       <c r="A943" s="2" t="s">
         <v>1044</v>
       </c>
+      <c r="B943" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" s="2" t="s">
@@ -18069,6 +18084,9 @@
       <c r="A948" s="2" t="s">
         <v>1049</v>
       </c>
+      <c r="B948" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="949" spans="1:16">
       <c r="A949" s="2" t="s">
@@ -18535,11 +18553,17 @@
       <c r="A983" s="2" t="s">
         <v>1085</v>
       </c>
+      <c r="B983" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" s="2" t="s">
         <v>1086</v>
       </c>
+      <c r="B984" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" s="2" t="s">
@@ -18555,10 +18579,16 @@
       <c r="A987" s="2" t="s">
         <v>1089</v>
       </c>
+      <c r="B987" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" s="2" t="s">
         <v>1090</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="989" spans="1:9">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2057">
   <si>
     <t>№</t>
   </si>
@@ -6685,52 +6685,52 @@
         <v>64</v>
       </c>
       <c r="C3">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="D3">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="E3">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="F3">
-        <v>5546</v>
+        <v>5551</v>
       </c>
       <c r="G3">
-        <v>8620</v>
+        <v>8621</v>
       </c>
       <c r="H3">
-        <v>11955</v>
+        <v>11963</v>
       </c>
       <c r="I3">
-        <v>16012</v>
+        <v>16021</v>
       </c>
       <c r="J3">
-        <v>22162</v>
+        <v>22181</v>
       </c>
       <c r="K3">
-        <v>23442</v>
+        <v>23460</v>
       </c>
       <c r="L3">
-        <v>38882</v>
+        <v>38919</v>
       </c>
       <c r="M3">
-        <v>40899</v>
+        <v>40943</v>
       </c>
       <c r="N3">
-        <v>63801</v>
+        <v>63863</v>
       </c>
       <c r="O3">
-        <v>66897</v>
+        <v>66970</v>
       </c>
       <c r="P3">
-        <v>119247</v>
+        <v>119346</v>
       </c>
       <c r="Q3">
-        <v>141006</v>
+        <v>141132</v>
       </c>
       <c r="R3">
-        <v>251516</v>
+        <v>251754</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>27411</v>
       </c>
       <c r="C4">
-        <v>7791</v>
+        <v>7857</v>
       </c>
       <c r="D4">
         <v>4617</v>
@@ -6797,7 +6797,7 @@
         <v>2132</v>
       </c>
       <c r="C5">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="D5">
         <v>768</v>
@@ -6853,7 +6853,7 @@
         <v>780</v>
       </c>
       <c r="C6">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D6">
         <v>228</v>
@@ -6965,7 +6965,7 @@
         <v>1088</v>
       </c>
       <c r="C8">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D8">
         <v>253</v>
@@ -11013,6 +11013,9 @@
       <c r="B276" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C276" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D276" s="3" t="s">
         <v>52</v>
       </c>
@@ -15814,6 +15817,9 @@
       </c>
       <c r="B721" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D721" s="3" t="s">
         <v>382</v>

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5025" uniqueCount="2057">
   <si>
     <t>№</t>
   </si>
@@ -6685,52 +6685,52 @@
         <v>64</v>
       </c>
       <c r="C3">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="D3">
-        <v>3489</v>
+        <v>3493</v>
       </c>
       <c r="E3">
-        <v>3601</v>
+        <v>3605</v>
       </c>
       <c r="F3">
-        <v>5551</v>
+        <v>5559</v>
       </c>
       <c r="G3">
-        <v>8621</v>
+        <v>8630</v>
       </c>
       <c r="H3">
-        <v>11963</v>
+        <v>11993</v>
       </c>
       <c r="I3">
-        <v>16021</v>
+        <v>16059</v>
       </c>
       <c r="J3">
-        <v>22181</v>
+        <v>22258</v>
       </c>
       <c r="K3">
-        <v>23460</v>
+        <v>23533</v>
       </c>
       <c r="L3">
-        <v>38919</v>
+        <v>39046</v>
       </c>
       <c r="M3">
-        <v>40943</v>
+        <v>41071</v>
       </c>
       <c r="N3">
-        <v>63863</v>
+        <v>64054</v>
       </c>
       <c r="O3">
-        <v>66970</v>
+        <v>67161</v>
       </c>
       <c r="P3">
-        <v>119346</v>
+        <v>119762</v>
       </c>
       <c r="Q3">
-        <v>141132</v>
+        <v>141624</v>
       </c>
       <c r="R3">
-        <v>251754</v>
+        <v>252803</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6794,7 +6794,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C5">
         <v>1357</v>
@@ -6821,7 +6821,7 @@
         <v>176</v>
       </c>
       <c r="K5">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L5">
         <v>36</v>
@@ -6933,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -6989,7 +6989,7 @@
         <v>55</v>
       </c>
       <c r="K8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8">
         <v>23</v>
@@ -7045,7 +7045,7 @@
         <v>13</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -7837,6 +7837,9 @@
       <c r="H38" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="K38" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
@@ -18803,6 +18806,9 @@
       <c r="A982" s="2" t="s">
         <v>1085</v>
       </c>
+      <c r="K982" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="983" spans="1:11">
       <c r="A983" s="2" t="s">
@@ -19548,7 +19554,7 @@
         <v>1193</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C1090" s="3" t="s">
         <v>56</v>
@@ -23763,6 +23769,9 @@
       <c r="A1680" s="2" t="s">
         <v>1785</v>
       </c>
+      <c r="K1680" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1681" spans="1:15">
       <c r="A1681" s="2" t="s">
@@ -24064,6 +24073,9 @@
     <row r="1717" spans="1:14">
       <c r="A1717" s="2" t="s">
         <v>1822</v>
+      </c>
+      <c r="K1717" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="1718" spans="1:14">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6817,52 +6817,52 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="D3">
-        <v>3586</v>
+        <v>3537</v>
       </c>
       <c r="E3">
         <v>3683</v>
       </c>
       <c r="F3">
-        <v>5427</v>
+        <v>5345</v>
       </c>
       <c r="G3">
-        <v>7316</v>
+        <v>7227</v>
       </c>
       <c r="H3">
         <v>12432</v>
       </c>
       <c r="I3">
-        <v>17274</v>
+        <v>17275</v>
       </c>
       <c r="J3">
         <v>22846</v>
       </c>
       <c r="K3">
-        <v>23910</v>
+        <v>23912</v>
       </c>
       <c r="L3">
-        <v>42011</v>
+        <v>42013</v>
       </c>
       <c r="M3">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="N3">
-        <v>69198</v>
+        <v>69200</v>
       </c>
       <c r="O3">
-        <v>72607</v>
+        <v>72611</v>
       </c>
       <c r="P3">
-        <v>129372</v>
+        <v>129377</v>
       </c>
       <c r="Q3">
-        <v>153073</v>
+        <v>153079</v>
       </c>
       <c r="R3">
-        <v>273000</v>
+        <v>273027</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6873,19 +6873,19 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8263</v>
+        <v>8296</v>
       </c>
       <c r="D4">
-        <v>4665</v>
+        <v>4705</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3498</v>
+        <v>3538</v>
       </c>
       <c r="G4">
-        <v>2823</v>
+        <v>2856</v>
       </c>
       <c r="H4">
         <v>1787</v>
@@ -6929,19 +6929,19 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D5">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G5">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H5">
         <v>385</v>
@@ -6985,19 +6985,19 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -7097,19 +7097,19 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8">
         <v>113</v>
@@ -11726,10 +11726,16 @@
       <c r="B319" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C319" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D319" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G319" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13868,6 +13874,12 @@
       </c>
       <c r="B519" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="520" spans="1:17">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -6838,10 +6838,10 @@
         <v>17275</v>
       </c>
       <c r="J3">
-        <v>22846</v>
+        <v>22847</v>
       </c>
       <c r="K3">
-        <v>23912</v>
+        <v>23913</v>
       </c>
       <c r="L3">
         <v>42013</v>

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -6859,10 +6859,10 @@
         <v>129377</v>
       </c>
       <c r="Q3">
-        <v>153079</v>
+        <v>153080</v>
       </c>
       <c r="R3">
-        <v>273027</v>
+        <v>273028</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -6826,7 +6826,7 @@
         <v>3683</v>
       </c>
       <c r="F3">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="G3">
         <v>7227</v>
@@ -6838,31 +6838,31 @@
         <v>17275</v>
       </c>
       <c r="J3">
-        <v>22847</v>
+        <v>22848</v>
       </c>
       <c r="K3">
         <v>23913</v>
       </c>
       <c r="L3">
-        <v>42013</v>
+        <v>42014</v>
       </c>
       <c r="M3">
         <v>44202</v>
       </c>
       <c r="N3">
-        <v>69200</v>
+        <v>69201</v>
       </c>
       <c r="O3">
         <v>72611</v>
       </c>
       <c r="P3">
-        <v>129377</v>
+        <v>129379</v>
       </c>
       <c r="Q3">
-        <v>153080</v>
+        <v>153082</v>
       </c>
       <c r="R3">
-        <v>273028</v>
+        <v>273033</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6817,52 +6817,52 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1402</v>
+        <v>1358</v>
       </c>
       <c r="D3">
-        <v>3537</v>
+        <v>3454</v>
       </c>
       <c r="E3">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="F3">
-        <v>5346</v>
+        <v>5229</v>
       </c>
       <c r="G3">
         <v>7227</v>
       </c>
       <c r="H3">
-        <v>12432</v>
+        <v>12434</v>
       </c>
       <c r="I3">
-        <v>17275</v>
+        <v>17276</v>
       </c>
       <c r="J3">
-        <v>22848</v>
+        <v>22853</v>
       </c>
       <c r="K3">
-        <v>23913</v>
+        <v>23917</v>
       </c>
       <c r="L3">
-        <v>42014</v>
+        <v>42019</v>
       </c>
       <c r="M3">
-        <v>44202</v>
+        <v>44210</v>
       </c>
       <c r="N3">
-        <v>69201</v>
+        <v>69216</v>
       </c>
       <c r="O3">
-        <v>72611</v>
+        <v>72621</v>
       </c>
       <c r="P3">
-        <v>129379</v>
+        <v>129391</v>
       </c>
       <c r="Q3">
-        <v>153082</v>
+        <v>153112</v>
       </c>
       <c r="R3">
-        <v>273033</v>
+        <v>273076</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6873,16 +6873,16 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8296</v>
+        <v>8449</v>
       </c>
       <c r="D4">
-        <v>4705</v>
+        <v>4806</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3538</v>
+        <v>3597</v>
       </c>
       <c r="G4">
         <v>2856</v>
@@ -6929,16 +6929,16 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="D5">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G5">
         <v>717</v>
@@ -6985,16 +6985,16 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6">
         <v>137</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -7097,16 +7097,16 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <v>204</v>
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -13875,11 +13875,14 @@
       <c r="B519" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C519" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D519" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="520" spans="1:17">
@@ -15138,6 +15141,12 @@
       <c r="B639" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C639" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="640" spans="1:11">
       <c r="A640" s="2" t="s">
@@ -15971,6 +15980,9 @@
       <c r="B712" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C712" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="713" spans="1:13">
       <c r="A713" s="2" t="s">
@@ -18584,6 +18596,15 @@
       </c>
       <c r="B948" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="C948" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F948" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="949" spans="1:16">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6829,7 +6829,7 @@
         <v>5229</v>
       </c>
       <c r="G3">
-        <v>7227</v>
+        <v>7083</v>
       </c>
       <c r="H3">
         <v>12434</v>
@@ -6841,28 +6841,28 @@
         <v>22853</v>
       </c>
       <c r="K3">
-        <v>23917</v>
+        <v>23919</v>
       </c>
       <c r="L3">
-        <v>42019</v>
+        <v>42021</v>
       </c>
       <c r="M3">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="N3">
-        <v>69216</v>
+        <v>69217</v>
       </c>
       <c r="O3">
-        <v>72621</v>
+        <v>72622</v>
       </c>
       <c r="P3">
-        <v>129391</v>
+        <v>129397</v>
       </c>
       <c r="Q3">
-        <v>153112</v>
+        <v>153115</v>
       </c>
       <c r="R3">
-        <v>273076</v>
+        <v>273079</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6885,7 +6885,7 @@
         <v>3597</v>
       </c>
       <c r="G4">
-        <v>2856</v>
+        <v>2896</v>
       </c>
       <c r="H4">
         <v>1787</v>
@@ -6941,7 +6941,7 @@
         <v>445</v>
       </c>
       <c r="G5">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H5">
         <v>385</v>
@@ -6997,7 +6997,7 @@
         <v>163</v>
       </c>
       <c r="G6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -7109,7 +7109,7 @@
         <v>185</v>
       </c>
       <c r="G8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8">
         <v>113</v>
@@ -13883,6 +13883,9 @@
       </c>
       <c r="F519" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="520" spans="1:17">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -6841,7 +6841,7 @@
         <v>22853</v>
       </c>
       <c r="K3">
-        <v>23919</v>
+        <v>23920</v>
       </c>
       <c r="L3">
         <v>42021</v>
@@ -6862,7 +6862,7 @@
         <v>153115</v>
       </c>
       <c r="R3">
-        <v>273079</v>
+        <v>273081</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6817,52 +6817,52 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1358</v>
+        <v>1308</v>
       </c>
       <c r="D3">
-        <v>3454</v>
+        <v>3360</v>
       </c>
       <c r="E3">
         <v>3684</v>
       </c>
       <c r="F3">
-        <v>5229</v>
+        <v>4989</v>
       </c>
       <c r="G3">
-        <v>7083</v>
+        <v>6948</v>
       </c>
       <c r="H3">
-        <v>12434</v>
+        <v>12435</v>
       </c>
       <c r="I3">
-        <v>17276</v>
+        <v>17277</v>
       </c>
       <c r="J3">
-        <v>22853</v>
+        <v>22856</v>
       </c>
       <c r="K3">
-        <v>23920</v>
+        <v>23923</v>
       </c>
       <c r="L3">
-        <v>42021</v>
+        <v>42024</v>
       </c>
       <c r="M3">
-        <v>44212</v>
+        <v>44215</v>
       </c>
       <c r="N3">
-        <v>69217</v>
+        <v>69230</v>
       </c>
       <c r="O3">
-        <v>72622</v>
+        <v>72630</v>
       </c>
       <c r="P3">
-        <v>129397</v>
+        <v>129406</v>
       </c>
       <c r="Q3">
-        <v>153115</v>
+        <v>153126</v>
       </c>
       <c r="R3">
-        <v>273081</v>
+        <v>273091</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6873,19 +6873,19 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8449</v>
+        <v>8589</v>
       </c>
       <c r="D4">
-        <v>4806</v>
+        <v>4905</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3597</v>
+        <v>3737</v>
       </c>
       <c r="G4">
-        <v>2896</v>
+        <v>2941</v>
       </c>
       <c r="H4">
         <v>1787</v>
@@ -6929,19 +6929,19 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="D5">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G5">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="H5">
         <v>385</v>
@@ -6985,19 +6985,19 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D6">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -7097,19 +7097,19 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8">
         <v>113</v>
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -7587,6 +7587,18 @@
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>81</v>
       </c>
@@ -10885,8 +10897,11 @@
       <c r="B245" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>76</v>
+      <c r="C245" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -19148,6 +19163,15 @@
       <c r="B991" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C991" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F991" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="992" spans="1:10">
       <c r="A992" s="2" t="s">
@@ -19877,7 +19901,16 @@
         <v>54</v>
       </c>
       <c r="C1091" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1091" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1091" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H1091" s="4" t="s">
         <v>150</v>

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6817,10 +6817,10 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1308</v>
+        <v>1268</v>
       </c>
       <c r="D3">
-        <v>3360</v>
+        <v>3329</v>
       </c>
       <c r="E3">
         <v>3684</v>
@@ -6829,40 +6829,40 @@
         <v>4989</v>
       </c>
       <c r="G3">
-        <v>6948</v>
+        <v>6949</v>
       </c>
       <c r="H3">
-        <v>12435</v>
+        <v>12436</v>
       </c>
       <c r="I3">
-        <v>17277</v>
+        <v>17279</v>
       </c>
       <c r="J3">
-        <v>22856</v>
+        <v>22858</v>
       </c>
       <c r="K3">
-        <v>23923</v>
+        <v>23925</v>
       </c>
       <c r="L3">
-        <v>42024</v>
+        <v>42028</v>
       </c>
       <c r="M3">
-        <v>44215</v>
+        <v>44221</v>
       </c>
       <c r="N3">
-        <v>69230</v>
+        <v>69240</v>
       </c>
       <c r="O3">
-        <v>72630</v>
+        <v>72637</v>
       </c>
       <c r="P3">
-        <v>129406</v>
+        <v>129433</v>
       </c>
       <c r="Q3">
-        <v>153126</v>
+        <v>153163</v>
       </c>
       <c r="R3">
-        <v>273091</v>
+        <v>273152</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6873,10 +6873,10 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8589</v>
+        <v>8725</v>
       </c>
       <c r="D4">
-        <v>4905</v>
+        <v>4946</v>
       </c>
       <c r="E4">
         <v>4589</v>
@@ -6929,10 +6929,10 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="D5">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E5">
         <v>786</v>
@@ -6985,10 +6985,10 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>228</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -7097,10 +7097,10 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8">
         <v>256</v>
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -8051,8 +8051,8 @@
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>46</v>
@@ -8798,8 +8798,8 @@
       <c r="B85" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>79</v>
+      <c r="C85" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -10900,6 +10900,9 @@
       <c r="C245" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="D245" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F245" s="3" t="s">
         <v>46</v>
       </c>
@@ -15269,6 +15272,9 @@
       <c r="B649" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C649" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="650" spans="1:9">
       <c r="A650" s="2" t="s">
@@ -17412,7 +17418,7 @@
         <v>52</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="845" spans="1:9">

--- a/groups/22-23/acmp_results.xlsx
+++ b/groups/22-23/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="2101">
   <si>
     <t>№</t>
   </si>
@@ -6829,40 +6829,40 @@
         <v>4989</v>
       </c>
       <c r="G3">
-        <v>6949</v>
+        <v>6797</v>
       </c>
       <c r="H3">
-        <v>12436</v>
+        <v>12437</v>
       </c>
       <c r="I3">
-        <v>17279</v>
+        <v>17280</v>
       </c>
       <c r="J3">
-        <v>22858</v>
+        <v>22860</v>
       </c>
       <c r="K3">
-        <v>23925</v>
+        <v>23926</v>
       </c>
       <c r="L3">
         <v>42028</v>
       </c>
       <c r="M3">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="N3">
-        <v>69240</v>
+        <v>69243</v>
       </c>
       <c r="O3">
-        <v>72637</v>
+        <v>72640</v>
       </c>
       <c r="P3">
-        <v>129433</v>
+        <v>129441</v>
       </c>
       <c r="Q3">
-        <v>153163</v>
+        <v>153170</v>
       </c>
       <c r="R3">
-        <v>273152</v>
+        <v>273163</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6885,7 +6885,7 @@
         <v>3737</v>
       </c>
       <c r="G4">
-        <v>2941</v>
+        <v>2982</v>
       </c>
       <c r="H4">
         <v>1787</v>
@@ -6941,7 +6941,7 @@
         <v>450</v>
       </c>
       <c r="G5">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H5">
         <v>385</v>
@@ -6997,7 +6997,7 @@
         <v>166</v>
       </c>
       <c r="G6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -7109,7 +7109,7 @@
         <v>189</v>
       </c>
       <c r="G8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8">
         <v>113</v>
@@ -10905,6 +10905,9 @@
       </c>
       <c r="F245" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:13">
